--- a/application/uploads/cache/xlsx/measurementsample-AVR-CF00006.xlsx
+++ b/application/uploads/cache/xlsx/measurementsample-AVR-CF00006.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>Staff Code</t>
   </si>
@@ -29,7 +29,7 @@
     <t>UOM</t>
   </si>
   <si>
-    <t>AVR-CF00006-1</t>
+    <t>AVR-CF00006-10</t>
   </si>
   <si>
     <t>CHST</t>
@@ -56,9 +56,6 @@
     <t>HIPS</t>
   </si>
   <si>
-    <t>AVR-CF00006-10</t>
-  </si>
-  <si>
     <t>AVR-CF00006-11</t>
   </si>
   <si>
@@ -98,10 +95,34 @@
     <t>AVR-CF00006-22</t>
   </si>
   <si>
+    <t>AVR-CF00006-23</t>
+  </si>
+  <si>
+    <t>AVR-CF00006-24</t>
+  </si>
+  <si>
+    <t>AVR-CF00006-25</t>
+  </si>
+  <si>
+    <t>AVR-CF00006-26</t>
+  </si>
+  <si>
+    <t>AVR-CF00006-27</t>
+  </si>
+  <si>
+    <t>AVR-CF00006-28</t>
+  </si>
+  <si>
+    <t>AVR-CF00006-29</t>
+  </si>
+  <si>
     <t>AVR-CF00006-3</t>
   </si>
   <si>
-    <t>AVR-CF00006-4</t>
+    <t>AVR-CF00006-30</t>
+  </si>
+  <si>
+    <t>AVR-CF00006-31</t>
   </si>
   <si>
     <t>AVR-CF00006-5</t>
@@ -468,7 +489,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D177"/>
+  <dimension ref="A1:D233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2"/>
@@ -1904,6 +1925,454 @@
         <v>12</v>
       </c>
     </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="PLV0/6vhGsFetVdYaPcBLg0IjKd0sRsWgNGJ4WyO9l89SvmXjTW/7M1U+6/O+7NmZFCU7j0/33ZqOfOY1dQ0Ag==" saltValue="3pH3mhvmV6Hlhhra0K9bKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
